--- a/src/excel/dashboard.xlsx
+++ b/src/excel/dashboard.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pupedu-my.sharepoint.com/personal/jmcrafal_iskolarngbayan_pup_edu_ph/Documents/Thesis/Tool V2/Ilokano-to-Tagalog-Machince-Translation/src/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob\OneDrive - Polytechnic University of the Philippines\Thesis\Tool V2\Ilokano-to-Tagalog-Machince-Translation\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AEA49F2-831B-4D40-801D-95CEEDA8519B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28378BC2-DEAB-4719-9F31-0ADC7A24DFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{303DF24F-51FF-41D5-96FE-9A63E9B88CDA}"/>
   </bookViews>
@@ -283,11 +283,28 @@
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -297,23 +314,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -631,7 +631,7 @@
   <dimension ref="B1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -641,318 +641,318 @@
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="8"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="9"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="2" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="11"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="17"/>
     </row>
     <row r="5" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="19"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="3" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>0.34</v>
       </c>
-      <c r="D6" s="3">
-        <v>0.32</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="3" t="s">
+      <c r="D6" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>0.47</v>
       </c>
-      <c r="H6" s="12">
-        <v>0.45</v>
+      <c r="H6" s="6">
+        <v>0.47</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="3">
-        <v>0.81</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.81</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="3" t="s">
+      <c r="C7" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>0.6</v>
       </c>
-      <c r="H7" s="12">
-        <v>0.62</v>
+      <c r="H7" s="6">
+        <v>0.59</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>0.17</v>
       </c>
-      <c r="D8" s="3">
-        <v>0.17</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="3" t="s">
+      <c r="D8" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>0.37</v>
       </c>
-      <c r="H8" s="12">
-        <v>0.35</v>
+      <c r="H8" s="6">
+        <v>0.38</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>0.19</v>
       </c>
-      <c r="D9" s="3">
-        <v>0.19</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="3" t="s">
+      <c r="D9" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>0.4</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="6">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="9">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="14" t="s">
+      <c r="H10" s="11">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="2:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20"/>
+    </row>
+    <row r="13" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="4"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="13"/>
+      <c r="C15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="15">
-        <v>0.18</v>
-      </c>
-      <c r="D10" s="15">
-        <v>0.18</v>
-      </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="15" t="s">
+      <c r="C20" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="15">
-        <v>0.38</v>
-      </c>
-      <c r="H10" s="17">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" spans="2:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="8"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="11"/>
-    </row>
-    <row r="15" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="19"/>
-      <c r="C15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="3">
+      <c r="G20" s="9">
         <v>0.41</v>
       </c>
-      <c r="D16" s="3">
-        <v>0.38</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0.51</v>
-      </c>
-      <c r="H16" s="12">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0.79</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="H17" s="12">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0.27</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0.23</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H20" s="11">
         <v>0.42</v>
-      </c>
-      <c r="H18" s="12">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0.21</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="H19" s="12">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="D20" s="15">
-        <v>0.22</v>
-      </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="15">
-        <v>0.41</v>
-      </c>
-      <c r="H20" s="17">
-        <v>0.36</v>
       </c>
     </row>
   </sheetData>

--- a/src/excel/dashboard.xlsx
+++ b/src/excel/dashboard.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob\OneDrive - Polytechnic University of the Philippines\Thesis\Tool V2\Ilokano-to-Tagalog-Machince-Translation\src\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pupedu-my.sharepoint.com/personal/jmcrafal_iskolarngbayan_pup_edu_ph/Documents/Thesis/Tool V2/Ilokano-to-Tagalog-Machince-Translation/src/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28378BC2-DEAB-4719-9F31-0ADC7A24DFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{28378BC2-DEAB-4719-9F31-0ADC7A24DFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A968E9D-6010-4C5C-ACCD-D64D0AEF280A}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{303DF24F-51FF-41D5-96FE-9A63E9B88CDA}"/>
   </bookViews>
@@ -631,7 +631,7 @@
   <dimension ref="B1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -708,7 +708,7 @@
         <v>0.47</v>
       </c>
       <c r="H6" s="6">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -729,7 +729,7 @@
         <v>0.6</v>
       </c>
       <c r="H7" s="6">
-        <v>0.59</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -750,7 +750,7 @@
         <v>0.37</v>
       </c>
       <c r="H8" s="6">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -771,7 +771,7 @@
         <v>0.4</v>
       </c>
       <c r="H9" s="6">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -792,7 +792,7 @@
         <v>0.38</v>
       </c>
       <c r="H10" s="11">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
